--- a/Large_dataset.xlsx
+++ b/Large_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{982D724B-7188-4266-90FB-2FACD67A0B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C4C4CE-2EC4-4AA9-B431-97389571260B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{219F80D8-1E66-4ABC-847E-3B0E42F4A1D9}"/>
   </bookViews>
@@ -4128,7 +4128,7 @@
   <dimension ref="A1:G741"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4139,6 +4139,7 @@
     <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
